--- a/Тяговые расчеты.xlsx
+++ b/Тяговые расчеты.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\matlab\kochergin\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="19155" windowHeight="8520"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>F н</t>
   </si>
@@ -34,12 +29,15 @@
   <si>
     <t>Fк сц</t>
   </si>
+  <si>
+    <t>W0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +59,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -151,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -173,6 +178,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -182,9 +199,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -283,58 +297,189 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>39200</c:v>
+                  <c:v>78399.999999999985</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39200</c:v>
+                  <c:v>78399.999999999985</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38677.33</c:v>
+                  <c:v>77354.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>69619.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63290.181818181816</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53553.230769230766</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49728</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46412.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40952.470588235294</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38677.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36641.684210526313</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>34809.599999999999</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>33152</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31645.090909090908</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30269.217391304348</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>31645.09</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29008</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26776.62</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24864</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23206.400000000001</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21756</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20476.240000000002</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19338.669999999998</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18320.84</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17404.8</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16576</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15822.55</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15134.61</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14504</c:v>
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$J$2:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>8789.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21638.270787839996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21929.077799999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24473.987999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27235.895400000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30214.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33410.701800000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36823.600800000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40453.497000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44300.390400000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48364.281000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52645.168800000014</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57143.053800000009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61857.936000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66789.815400000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71938.691999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>77304.565799999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>82887.436799999981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -349,11 +494,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147616360"/>
-        <c:axId val="147627552"/>
+        <c:axId val="82856768"/>
+        <c:axId val="82857344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147616360"/>
+        <c:axId val="82856768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -363,12 +508,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147627552"/>
+        <c:crossAx val="82857344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147627552"/>
+        <c:axId val="82857344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -379,7 +524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147616360"/>
+        <c:crossAx val="82856768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -401,6 +546,366 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$C$1:$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0 10 20 30 40 50 51 55,5 60 62 65 68,5 70 75 80 85 90 95 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$C$1:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$D$1:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$C$1:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$B$1:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>34861.6008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36570.502800000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39304.745999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42722.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47165.695200000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52292.401200000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52634.181599999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55368.424800000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58102.668000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59469.789600000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61520.472000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63912.934800000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64938.275999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>68697.86039999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72799.225200000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76900.590000000011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81001.954800000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85786.880400000009</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90571.806000000011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="79188480"/>
+        <c:axId val="79187328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="79188480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79187328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="79187328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79188480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -408,13 +913,48 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>428624</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
+      <xdr:rowOff>42860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -479,7 +1019,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -514,7 +1054,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -723,15 +1263,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,10 +1287,14 @@
       <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>39200</v>
+        <f>0.7*56*1000*2</f>
+        <v>78399.999999999985</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -766,10 +1310,14 @@
         <f>56*10*1000*G2</f>
         <v>1823733.3333333335</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="7">
+        <v>8789.76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>39200</v>
+        <f>0.7*56*1000*2</f>
+        <v>78399.999999999985</v>
       </c>
       <c r="B3" s="4">
         <v>44.4</v>
@@ -785,10 +1333,14 @@
         <f t="shared" ref="H3:H19" si="1">56*10*1000*G3</f>
         <v>1225170.4086021506</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="7">
+        <v>21638.270787839996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>38677.33</v>
+        <f>3480960/B4</f>
+        <v>77354.666666666672</v>
       </c>
       <c r="B4" s="4">
         <v>45</v>
@@ -804,10 +1356,14 @@
         <f t="shared" si="1"/>
         <v>1221733.3333333333</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="7">
+        <v>21929.077799999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>34809.599999999999</v>
+        <f t="shared" ref="A5:A19" si="2">3480960/B5</f>
+        <v>69619.199999999997</v>
       </c>
       <c r="B5" s="4">
         <v>50</v>
@@ -823,10 +1379,14 @@
         <f t="shared" si="1"/>
         <v>1194900</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="7">
+        <v>24473.987999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>31645.09</v>
+        <f t="shared" si="2"/>
+        <v>63290.181818181816</v>
       </c>
       <c r="B6" s="4">
         <v>55</v>
@@ -842,10 +1402,14 @@
         <f t="shared" si="1"/>
         <v>1170894.1176470588</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="7">
+        <v>27235.895400000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>29008</v>
+        <f t="shared" si="2"/>
+        <v>58016</v>
       </c>
       <c r="B7" s="4">
         <v>60</v>
@@ -861,10 +1425,14 @@
         <f t="shared" si="1"/>
         <v>1149244.4444444443</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="7">
+        <v>30214.799999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>26776.62</v>
+        <f t="shared" si="2"/>
+        <v>53553.230769230766</v>
       </c>
       <c r="B8" s="4">
         <v>65</v>
@@ -880,10 +1448,14 @@
         <f t="shared" si="1"/>
         <v>1129578.9473684211</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="7">
+        <v>33410.701800000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>24864</v>
+        <f t="shared" si="2"/>
+        <v>49728</v>
       </c>
       <c r="B9" s="4">
         <v>70</v>
@@ -899,10 +1471,14 @@
         <f t="shared" si="1"/>
         <v>1111600</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="7">
+        <v>36823.600800000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>23206.400000000001</v>
+        <f t="shared" si="2"/>
+        <v>46412.800000000003</v>
       </c>
       <c r="B10" s="4">
         <v>75</v>
@@ -918,10 +1494,14 @@
         <f t="shared" si="1"/>
         <v>1095066.6666666667</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="7">
+        <v>40453.497000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>21756</v>
+        <f t="shared" si="2"/>
+        <v>43512</v>
       </c>
       <c r="B11" s="4">
         <v>80</v>
@@ -937,10 +1517,14 @@
         <f t="shared" si="1"/>
         <v>1079781.8181818181</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="7">
+        <v>44300.390400000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>20476.240000000002</v>
+        <f t="shared" si="2"/>
+        <v>40952.470588235294</v>
       </c>
       <c r="B12" s="4">
         <v>85</v>
@@ -956,10 +1540,14 @@
         <f t="shared" si="1"/>
         <v>1065582.6086956523</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="7">
+        <v>48364.281000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>19338.669999999998</v>
+        <f t="shared" si="2"/>
+        <v>38677.333333333336</v>
       </c>
       <c r="B13" s="4">
         <v>90</v>
@@ -975,10 +1563,14 @@
         <f t="shared" si="1"/>
         <v>1052333.3333333333</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="7">
+        <v>52645.168800000014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>18320.84</v>
+        <f t="shared" si="2"/>
+        <v>36641.684210526313</v>
       </c>
       <c r="B14" s="4">
         <v>95</v>
@@ -994,10 +1586,14 @@
         <f t="shared" si="1"/>
         <v>1039920</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="7">
+        <v>57143.053800000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>17404.8</v>
+        <f t="shared" si="2"/>
+        <v>34809.599999999999</v>
       </c>
       <c r="B15" s="4">
         <v>100</v>
@@ -1013,10 +1609,14 @@
         <f t="shared" si="1"/>
         <v>1028246.1538461538</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="7">
+        <v>61857.936000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>16576</v>
+        <f t="shared" si="2"/>
+        <v>33152</v>
       </c>
       <c r="B16" s="4">
         <v>105</v>
@@ -1032,10 +1632,14 @@
         <f t="shared" si="1"/>
         <v>1017229.6296296297</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="7">
+        <v>66789.815400000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>15822.55</v>
+        <f t="shared" si="2"/>
+        <v>31645.090909090908</v>
       </c>
       <c r="B17" s="4">
         <v>110</v>
@@ -1051,10 +1655,14 @@
         <f t="shared" si="1"/>
         <v>1006800</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J17" s="7">
+        <v>71938.691999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>15134.61</v>
+        <f t="shared" si="2"/>
+        <v>30269.217391304348</v>
       </c>
       <c r="B18" s="4">
         <v>115</v>
@@ -1070,10 +1678,14 @@
         <f t="shared" si="1"/>
         <v>996896.55172413797</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="7">
+        <v>77304.565799999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>14504</v>
+        <f t="shared" si="2"/>
+        <v>29008</v>
       </c>
       <c r="B19" s="4">
         <v>120</v>
@@ -1088,6 +1700,9 @@
       <c r="H19" s="7">
         <f t="shared" si="1"/>
         <v>987466.66666666663</v>
+      </c>
+      <c r="J19" s="7">
+        <v>82887.436799999981</v>
       </c>
     </row>
   </sheetData>
@@ -1099,13 +1714,303 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9">
+        <v>1.02</v>
+      </c>
+      <c r="B1">
+        <f>A1*(184+3300)*9.81</f>
+        <v>34861.6008</v>
+      </c>
+      <c r="C1" s="11">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>1.07</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B19" si="0">A2*(184+3300)*9.81</f>
+        <v>36570.502800000002</v>
+      </c>
+      <c r="C2" s="12">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>39304.745999999999</v>
+      </c>
+      <c r="C3" s="12">
+        <v>20</v>
+      </c>
+      <c r="D3" s="10">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>42722.55</v>
+      </c>
+      <c r="C4" s="12">
+        <v>30</v>
+      </c>
+      <c r="D4" s="10">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>1.38</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>47165.695200000002</v>
+      </c>
+      <c r="C5" s="12">
+        <v>40</v>
+      </c>
+      <c r="D5" s="10">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>1.53</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>52292.401200000008</v>
+      </c>
+      <c r="C6" s="12">
+        <v>50</v>
+      </c>
+      <c r="D6" s="10">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>1.54</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>52634.181599999996</v>
+      </c>
+      <c r="C7" s="12">
+        <v>51</v>
+      </c>
+      <c r="D7" s="10">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>1.62</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>55368.424800000001</v>
+      </c>
+      <c r="C8" s="12">
+        <v>55.5</v>
+      </c>
+      <c r="D8" s="10">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>58102.668000000005</v>
+      </c>
+      <c r="C9" s="12">
+        <v>60</v>
+      </c>
+      <c r="D9" s="10">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>1.74</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>59469.789600000004</v>
+      </c>
+      <c r="C10" s="12">
+        <v>62</v>
+      </c>
+      <c r="D10" s="10">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>61520.472000000002</v>
+      </c>
+      <c r="C11" s="12">
+        <v>65</v>
+      </c>
+      <c r="D11" s="10">
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>1.87</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>63912.934800000003</v>
+      </c>
+      <c r="C12" s="12">
+        <v>68.5</v>
+      </c>
+      <c r="D12" s="10">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>64938.275999999998</v>
+      </c>
+      <c r="C13" s="12">
+        <v>70</v>
+      </c>
+      <c r="D13" s="10">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>68697.86039999999</v>
+      </c>
+      <c r="C14" s="12">
+        <v>75</v>
+      </c>
+      <c r="D14" s="10">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>2.13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>72799.225200000001</v>
+      </c>
+      <c r="C15" s="12">
+        <v>80</v>
+      </c>
+      <c r="D15" s="10">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>2.25</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>76900.590000000011</v>
+      </c>
+      <c r="C16" s="12">
+        <v>85</v>
+      </c>
+      <c r="D16" s="10">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>2.37</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>81001.954800000007</v>
+      </c>
+      <c r="C17" s="12">
+        <v>90</v>
+      </c>
+      <c r="D17" s="10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>85786.880400000009</v>
+      </c>
+      <c r="C18" s="12">
+        <v>95</v>
+      </c>
+      <c r="D18" s="10">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>2.65</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>90571.806000000011</v>
+      </c>
+      <c r="C19" s="12">
+        <v>100</v>
+      </c>
+      <c r="D19" s="10">
+        <v>7500</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
